--- a/Excel/Testdata.xlsx
+++ b/Excel/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Abinesh\PycharmProjects\SeleniumFrameworks\DemoWebShop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F39ED1-1ADD-4875-8638-096D93F337F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4574EDA-95F1-4FC8-823D-D24E5CBF53A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{62B6C1D4-6FCC-4F50-AFC2-2AA066AC38D8}"/>
   </bookViews>
@@ -236,10 +236,10 @@
     <t>Stark</t>
   </si>
   <si>
+    <t>SavingWorld</t>
+  </si>
+  <si>
     <t>iamironman@gmail.com</t>
-  </si>
-  <si>
-    <t>SavingWorld</t>
   </si>
 </sst>
 </file>
@@ -657,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EB9056-7AA9-481B-A63F-C849AD74134D}">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -696,7 +696,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -828,6 +828,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{4778C30A-20A0-45C9-B1BE-1FC2D02D95FB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Excel/Testdata.xlsx
+++ b/Excel/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Abinesh\PycharmProjects\SeleniumFrameworks\DemoWebShop\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4574EDA-95F1-4FC8-823D-D24E5CBF53A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EBDB14-D097-4208-B32D-8ABDFB9700B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{62B6C1D4-6FCC-4F50-AFC2-2AA066AC38D8}"/>
   </bookViews>
